--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>915943.272905973</v>
+        <v>940704.5786978513</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7226289.925414165</v>
+        <v>8289674.162431625</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3187716.885615896</v>
+        <v>4234446.526755522</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10601278.34820128</v>
+        <v>10180039.69429826</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>93.48805915162994</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>181.5464716967363</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>43.99240337009294</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>371.2618468459386</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>199.8692462101358</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>162.5776147681367</v>
+        <v>9.22084658737597</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>119.7442511513853</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.645429595779203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>86.88462298447462</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>183.1060521027575</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.04518470759558</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>5.171430006412288</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396657</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>134.6653908827654</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.51626366671984</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>54.26003672910142</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>360.96781171173</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>220.309196309088</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>16.99141685203524</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>186.2362528478217</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>187.1115933738242</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292547</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247747</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17.84935903930831</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>165.6040273698195</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2146,10 +2146,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>153.0471678767955</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>120.4528780263476</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>166.4648320575207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>88.18935773635887</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,10 +2487,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>51.37677186479849</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,13 +2721,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>37.59657533957262</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>192.1675620474802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>176.2490278105968</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>71.98153210089556</v>
       </c>
       <c r="X34" t="n">
-        <v>131.6653792309046</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,10 +3283,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>272.4946165086912</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.53455727340442</v>
+        <v>42.01201317445332</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>109.1898158043862</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3520,10 +3520,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>177.1588805192184</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>63.72703424640802</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>119.7834019707977</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>230.0882684280481</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>183.8751672983363</v>
       </c>
     </row>
     <row r="44">
@@ -4030,13 +4030,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>172.9366805493159</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>256.2151277721147</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>42.32069823344337</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>886.5559895554136</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>475.570084765806</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.280787374151</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4391,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>683.6922131255325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>456.3840257941342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U4" t="n">
-        <v>456.3840257941342</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V4" t="n">
-        <v>456.3840257941342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1215.881273373638</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C5" t="n">
-        <v>846.9187564332267</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="D5" t="n">
-        <v>846.9187564332267</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="E5" t="n">
-        <v>846.9187564332267</v>
+        <v>1084.780822196771</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>673.7949174071632</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>255.8311093053501</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.48111343776</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,22 +4649,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4731,43 +4731,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>352.67413830922</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>352.67413830922</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>63.25696827225937</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>850.7171392082162</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="C8" t="n">
-        <v>850.7171392082162</v>
+        <v>920.0552989279781</v>
       </c>
       <c r="D8" t="n">
-        <v>850.7171392082162</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E8" t="n">
-        <v>464.928886609972</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F8" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.50539369077</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1245.039635429691</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y8" t="n">
-        <v>1237.316979272338</v>
+        <v>1289.01781586839</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>640.3667387675712</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>640.3667387675712</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>640.3667387675712</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>350.9495687306105</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1832.276849100054</v>
+        <v>1232.465674705964</v>
       </c>
       <c r="C11" t="n">
-        <v>1463.314332159642</v>
+        <v>1232.465674705964</v>
       </c>
       <c r="D11" t="n">
-        <v>1278.358723975039</v>
+        <v>1232.465674705964</v>
       </c>
       <c r="E11" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.465674705964</v>
       </c>
       <c r="F11" t="n">
-        <v>481.5845665871869</v>
+        <v>821.4797699163569</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>406.3950511722217</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.6858050925453</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>254.0744928369595</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>586.3643121319024</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3005.546484356408</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.19438516353</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410102</v>
+        <v>2740.662926950236</v>
       </c>
       <c r="V11" t="n">
-        <v>2961.784676410102</v>
+        <v>2735.439260277092</v>
       </c>
       <c r="W11" t="n">
-        <v>2609.016021139988</v>
+        <v>2382.670605006978</v>
       </c>
       <c r="X11" t="n">
-        <v>2609.016021139988</v>
+        <v>2009.204846745898</v>
       </c>
       <c r="Y11" t="n">
-        <v>2218.876689164176</v>
+        <v>1619.065514770086</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3156003142899</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8625710331629</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>448.690706366456</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>302.156148393341</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927781</v>
+        <v>165.7864839520666</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>75.22119252365749</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031475</v>
+        <v>396.5106591183472</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>761.8119001858314</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>697.9541770656748</v>
+        <v>930.5564765553623</v>
       </c>
       <c r="C13" t="n">
-        <v>529.0179941377679</v>
+        <v>761.6202936274555</v>
       </c>
       <c r="D13" t="n">
-        <v>529.0179941377679</v>
+        <v>625.5946462711267</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>477.6815526887336</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2149530574645</v>
+        <v>477.6815526887336</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>309.9732127967294</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>163.7070969704486</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>314.317742817943</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886842</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897968</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1729.869392788394</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1729.869392788394</v>
       </c>
       <c r="U13" t="n">
-        <v>1872.48643018031</v>
+        <v>1440.766225735853</v>
       </c>
       <c r="V13" t="n">
-        <v>1617.801941974423</v>
+        <v>1440.766225735853</v>
       </c>
       <c r="W13" t="n">
-        <v>1328.384771937462</v>
+        <v>1151.349055698892</v>
       </c>
       <c r="X13" t="n">
-        <v>1100.395221039445</v>
+        <v>1151.349055698892</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.6026418959145</v>
+        <v>930.5564765553623</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1642.972675199009</v>
+        <v>1636.597933493125</v>
       </c>
       <c r="C14" t="n">
-        <v>1278.358723975039</v>
+        <v>1267.635416552713</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
@@ -5296,34 +5296,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2786.802863794138</v>
       </c>
       <c r="V14" t="n">
-        <v>2755.806928794324</v>
+        <v>2786.802863794138</v>
       </c>
       <c r="W14" t="n">
-        <v>2403.03827352421</v>
+        <v>2786.802863794138</v>
       </c>
       <c r="X14" t="n">
-        <v>2029.57251526313</v>
+        <v>2413.337105533058</v>
       </c>
       <c r="Y14" t="n">
-        <v>2029.57251526313</v>
+        <v>2023.197773557246</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
         <v>1212.42807043813</v>
@@ -5381,28 +5381,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.3439163053883</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C16" t="n">
-        <v>549.4077333774815</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D16" t="n">
-        <v>399.2910939651457</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E16" t="n">
-        <v>251.3780003827526</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U16" t="n">
-        <v>1638.191681214136</v>
+        <v>1548.361223971665</v>
       </c>
       <c r="V16" t="n">
-        <v>1638.191681214136</v>
+        <v>1293.676735765778</v>
       </c>
       <c r="W16" t="n">
-        <v>1348.774511177176</v>
+        <v>1105.559308646766</v>
       </c>
       <c r="X16" t="n">
-        <v>1120.784960279158</v>
+        <v>1105.559308646766</v>
       </c>
       <c r="Y16" t="n">
-        <v>899.9923811356281</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143013</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551615</v>
+        <v>481.584566587187</v>
       </c>
       <c r="G17" t="n">
-        <v>435.141533600158</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089252</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>2866.097597267231</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>2535.03470992366</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>2182.266054653546</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>1808.800296392466</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>1808.800296392466</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973196</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161926</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549414</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>877.1197344942216</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C19" t="n">
-        <v>708.1835515663147</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D19" t="n">
-        <v>558.0669121539789</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E19" t="n">
-        <v>410.1538185715858</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T19" t="n">
-        <v>1956.343466104704</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U19" t="n">
-        <v>1667.240599230347</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="V19" t="n">
-        <v>1412.556111024461</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="W19" t="n">
-        <v>1123.1389409875</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X19" t="n">
-        <v>895.1493900894825</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y19" t="n">
-        <v>895.1493900894825</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>806.1613418786371</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
-        <v>1670.680157531992</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>2649.23046036182</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>1917.382287315189</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.0030950818858</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C22" t="n">
-        <v>558.0669121539789</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D22" t="n">
-        <v>558.0669121539789</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.556111024461</v>
+        <v>1259.157560278959</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.1389409875</v>
+        <v>969.7403902419981</v>
       </c>
       <c r="X22" t="n">
-        <v>895.1493900894825</v>
+        <v>969.7403902419981</v>
       </c>
       <c r="Y22" t="n">
-        <v>727.0030950818858</v>
+        <v>969.7403902419981</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5995,22 +5995,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1172.647446689874</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2151.197749519703</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3130.95002174635</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.1255161526733</v>
+        <v>482.6709267727787</v>
       </c>
       <c r="C25" t="n">
-        <v>613.1893332247664</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D25" t="n">
-        <v>463.0726938124307</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
-        <v>315.1596002300375</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839441</v>
@@ -6174,25 +6174,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U25" t="n">
-        <v>1667.240599230347</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V25" t="n">
-        <v>1412.556111024461</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.556111024461</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.566560126443</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.773980982913</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6226,25 +6226,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O26" t="n">
-        <v>4010.914672075804</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432983</v>
+        <v>4326.137700633767</v>
       </c>
       <c r="Q26" t="n">
         <v>4653.975400188665</v>
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>283.6540125875712</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>133.5373731752354</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839441</v>
@@ -6414,22 +6414,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1701.658977898817</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1507.550329366009</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>1279.560778467991</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.768199324461</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>877.1197344942216</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839441</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1586.628260910725</v>
       </c>
       <c r="U31" t="n">
-        <v>1956.343466104704</v>
+        <v>1297.525394036369</v>
       </c>
       <c r="V31" t="n">
-        <v>1796.967499402969</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="W31" t="n">
-        <v>1507.550329366009</v>
+        <v>1042.840905830482</v>
       </c>
       <c r="X31" t="n">
-        <v>1279.560778467991</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y31" t="n">
-        <v>1058.768199324461</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
         <v>1646.988141143013</v>
@@ -6688,13 +6688,13 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839441</v>
@@ -6706,22 +6706,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1971.087962216427</v>
+        <v>1772.421240554551</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.619866888352</v>
+        <v>2750.971543384379</v>
       </c>
       <c r="N32" t="n">
-        <v>3484.372139114998</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>877.1197344942216</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C34" t="n">
-        <v>708.1835515663147</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D34" t="n">
-        <v>558.0669121539789</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839441</v>
@@ -6897,13 +6897,13 @@
         <v>1412.556111024461</v>
       </c>
       <c r="W34" t="n">
-        <v>1412.556111024461</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X34" t="n">
-        <v>1279.560778467991</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1058.768199324461</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2022.362917809257</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>1653.400400868845</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1295.134702262095</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>909.3464496638505</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>498.3605448742429</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001586</v>
+        <v>83.2880947192394</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089258</v>
+        <v>83.2880947192394</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>83.2880947192394</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>272.1672256782649</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>605.9865993681113</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1057.02081261652</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>1979.602198186324</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2959.35447041297</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075805</v>
+        <v>3462.326941292307</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>3857.101307649486</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4105.387669405168</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4164.40473596197</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4054.114067489065</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4054.114067489065</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>3800.583590762901</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3525.336503380385</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3172.56784811027</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730109</v>
+        <v>2799.102089849191</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754297</v>
+        <v>2408.962757873379</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>958.3198327681647</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>783.8668034870377</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>634.9323938257864</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>475.6949388203309</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>329.1603808472158</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>192.7972806798339</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>102.2953863177014</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>83.2880947192394</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>176.9653642098567</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>415.2295631902039</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>781.9277235028692</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.47698845434</v>
+        <v>1229.204048725185</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.72709227964</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.688371697694</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2424.187963173797</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.829520820397</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.685167412913</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2452.247280906392</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.604280584248</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2031.536433718664</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.384325486921</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1542.146968758719</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1334.295468553187</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1126.535169788233</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>492.7083461157126</v>
+        <v>440.317255786323</v>
       </c>
       <c r="C37" t="n">
-        <v>492.7083461157126</v>
+        <v>440.317255786323</v>
       </c>
       <c r="D37" t="n">
-        <v>342.5917067033769</v>
+        <v>440.317255786323</v>
       </c>
       <c r="E37" t="n">
-        <v>263.2638710736754</v>
+        <v>397.8808788424308</v>
       </c>
       <c r="F37" t="n">
-        <v>263.2638710736754</v>
+        <v>250.9909313445204</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>83.2880947192394</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>83.2880947192394</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>83.2880947192394</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>128.410727166175</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>332.3979101150513</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>648.9577085635474</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>993.1147541630964</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.523130868961</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.852729789375</v>
       </c>
       <c r="P37" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.460230223034</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1944.070526375549</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1944.070526375549</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1944.070526375549</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1722.303910945075</v>
       </c>
       <c r="U37" t="n">
-        <v>1667.240599230347</v>
+        <v>1433.201044070718</v>
       </c>
       <c r="V37" t="n">
-        <v>1412.556111024461</v>
+        <v>1178.516555864831</v>
       </c>
       <c r="W37" t="n">
-        <v>1123.1389409875</v>
+        <v>889.0993858278705</v>
       </c>
       <c r="X37" t="n">
-        <v>895.1493900894825</v>
+        <v>661.1098349298532</v>
       </c>
       <c r="Y37" t="n">
-        <v>674.3568109459524</v>
+        <v>440.317255786323</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690175</v>
+        <v>2022.066722926593</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>1653.104205986181</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1294.838507379431</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>909.0502547811865</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551617</v>
+        <v>498.0643499915789</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089255</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>271.8710307956009</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>605.6904044854473</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1056.724617733856</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>1964.792454053123</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2944.54472627977</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3447.517197159107</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>3842.291563516285</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4090.577925271967</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4149.59499182877</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4039.304323355865</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>3833.326575740087</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>3579.796099013923</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3248.733211670352</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>2895.964556400238</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>2522.498798139158</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2132.359466163346</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>958.0236378855002</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>783.5706086043732</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>634.6361989431221</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>475.3987439376665</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>328.8641859645516</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>192.5010857971704</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>101.999191435038</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>176.6691693271928</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.388972530248</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.951086023728</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.308085701584</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.088130604257</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.850773876055</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1126.238974905568</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>411.1769646560685</v>
+        <v>864.5505998824026</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1769646560685</v>
+        <v>695.6144169544957</v>
       </c>
       <c r="D40" t="n">
-        <v>411.1769646560685</v>
+        <v>545.49777754216</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2638710736754</v>
+        <v>397.5846839597668</v>
       </c>
       <c r="F40" t="n">
-        <v>263.2638710736754</v>
+        <v>250.6947364618565</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>332.1017152323873</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.65758193153</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="U40" t="n">
-        <v>1585.709217770703</v>
+        <v>1654.671464618528</v>
       </c>
       <c r="V40" t="n">
-        <v>1331.024729564816</v>
+        <v>1399.986976412641</v>
       </c>
       <c r="W40" t="n">
-        <v>1041.607559527856</v>
+        <v>1110.569806375681</v>
       </c>
       <c r="X40" t="n">
-        <v>813.6180086298384</v>
+        <v>1110.569806375681</v>
       </c>
       <c r="Y40" t="n">
-        <v>592.8254294863083</v>
+        <v>1046.199064712642</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2319.650323317826</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>1950.687806377414</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1592.422107770664</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1206.633855172419</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>795.6479503828117</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>380.5755002278082</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089264</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>288.9036357557437</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>622.7230094455902</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1487.241825098945</v>
       </c>
       <c r="M41" t="n">
-        <v>2461.32865758045</v>
+        <v>2020.77372977087</v>
       </c>
       <c r="N41" t="n">
-        <v>3441.080929807096</v>
+        <v>2567.552546829652</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3447.517197159107</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>3842.291563516285</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4090.577925271967</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4149.59499182877</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4149.59499182877</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>3943.617244212992</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>3822.623908888954</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3822.623908888954</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3469.855253618839</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3096.38949535776</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2706.250163381948</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>958.0236378855005</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>783.5706086043735</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>634.6361989431223</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>475.3987439376668</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>328.8641859645518</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>192.5010857971699</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>101.9991914350374</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>176.6691693271927</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.388972530248</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.951086023728</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2259.308085701584</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1796.088130604257</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1541.850773876055</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1126.238974905569</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>582.3166934139181</v>
+        <v>696.8477632571215</v>
       </c>
       <c r="C43" t="n">
-        <v>413.3805104860112</v>
+        <v>527.9115803292146</v>
       </c>
       <c r="D43" t="n">
-        <v>263.2638710736754</v>
+        <v>377.7949409168789</v>
       </c>
       <c r="E43" t="n">
-        <v>263.2638710736754</v>
+        <v>229.8818473344858</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="J43" t="n">
-        <v>140.68366689533</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>332.1017152323873</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P43" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="U43" t="n">
-        <v>1734.57685067423</v>
+        <v>1654.671464618528</v>
       </c>
       <c r="V43" t="n">
-        <v>1502.164458322666</v>
+        <v>1399.986976412641</v>
       </c>
       <c r="W43" t="n">
-        <v>1212.747288285705</v>
+        <v>1110.569806375681</v>
       </c>
       <c r="X43" t="n">
-        <v>984.7577373876879</v>
+        <v>882.5802554776633</v>
       </c>
       <c r="Y43" t="n">
-        <v>763.9651582441578</v>
+        <v>696.8477632571215</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2361.647222078357</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>1992.684705137945</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1634.419006531195</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1248.63075393295</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551617</v>
+        <v>837.644849143343</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001583</v>
+        <v>422.5723989883394</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089255</v>
+        <v>124.9887985971067</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>271.8710307956009</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>605.6904044854473</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1056.724617733856</v>
       </c>
       <c r="M44" t="n">
-        <v>2016.310259422546</v>
+        <v>2035.274920563685</v>
       </c>
       <c r="N44" t="n">
-        <v>2996.062531649192</v>
+        <v>2582.053737622467</v>
       </c>
       <c r="O44" t="n">
-        <v>3876.027181978647</v>
+        <v>3085.026208501804</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>3567.040467088726</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4025.518669597715</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4149.59499182877</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4039.304323355865</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4039.304323355865</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4039.304323355865</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3864.620807649485</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3511.852152379371</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3138.386394118291</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2748.247062142479</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>958.0236378855005</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>783.5706086043735</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>634.6361989431223</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>475.3987439376668</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>328.8641859645518</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>192.5010857971699</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>101.9991914350374</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>176.6691693271927</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>414.9333683075399</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>781.6315286202052</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1228.907853842521</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1702.430897396976</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2113.39217681503</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2423.891768291133</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2581.533325937733</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2581.388972530248</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2451.951086023728</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2259.308085701584</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2031.240238835999</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1796.088130604257</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1541.850773876055</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1333.999273670522</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1126.238974905569</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>875.4238276939707</v>
+        <v>251.9280827644823</v>
       </c>
       <c r="C46" t="n">
-        <v>706.4876447660638</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="D46" t="n">
-        <v>556.371005353728</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="E46" t="n">
-        <v>556.371005353728</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>82.9918998365754</v>
       </c>
       <c r="J46" t="n">
-        <v>140.68366689533</v>
+        <v>128.114532283511</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>332.1017152323873</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927024</v>
+        <v>648.6615136808834</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892251</v>
+        <v>992.8185592804325</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598116</v>
+        <v>1334.226935986297</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1633.556534906711</v>
       </c>
       <c r="P46" t="n">
-        <v>1878.733169952189</v>
+        <v>1866.16403534037</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1943.774331492885</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1752.088447319711</v>
       </c>
       <c r="T46" t="n">
-        <v>1764.65758193153</v>
+        <v>1530.321831889237</v>
       </c>
       <c r="U46" t="n">
-        <v>1764.65758193153</v>
+        <v>1241.218965014881</v>
       </c>
       <c r="V46" t="n">
-        <v>1764.65758193153</v>
+        <v>986.5344768089939</v>
       </c>
       <c r="W46" t="n">
-        <v>1505.854422565758</v>
+        <v>697.1173067720333</v>
       </c>
       <c r="X46" t="n">
-        <v>1277.86487166774</v>
+        <v>654.3691267382521</v>
       </c>
       <c r="Y46" t="n">
-        <v>1057.07229252421</v>
+        <v>433.576547594722</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050814</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8461,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N8" t="n">
         <v>437.3469244119842</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.546395060290962</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>189.7998007892634</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>104.3976710547468</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>67.53663776704173</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>80.35488666587432</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>344.7025836476828</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>216.9877583263329</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>89.52456338961838</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>392.9792736342212</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>67.53663776704263</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,16 +10828,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>378.3191228761035</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>17.20465147489176</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11302,25 +11302,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>201.9664098701116</v>
+        <v>88.12110326236808</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22561,10 +22561,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>320.296110869165</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>204.6914669593173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22728,7 +22728,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>168.153135579926</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>35.61419889577286</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>124.0535265542214</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22965,7 +22965,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>63.13204062090043</v>
+        <v>216.4888088016612</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>234.9387904692977</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>378.5925090602744</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23184,13 +23184,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23202,7 +23202,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,16 +23226,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>138.1504824736097</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,13 +23260,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>171.5769895179255</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>322.5808284637226</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>13.95008213544693</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>89.17712508496182</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>231.9518014765115</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.305080059277543</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>30.68597564981394</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>128.429631170896</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>100.2867454887693</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>195.6222482896564</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,7 +23740,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>161.982621142629</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>120.9189709667715</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>216.6839328016736</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>59.37910215558968</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>52.11982129457408</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>79.05746336226896</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,10 +24375,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>94.04427615813276</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>108.8373873069965</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24654,16 +24654,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>94.35543628911083</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,19 +24888,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>43.29992146557237</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>214.5414662356955</v>
       </c>
       <c r="X34" t="n">
-        <v>94.04427615813256</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>55.25764196144371</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>67.89940537316475</v>
+        <v>104.4219494721159</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>273.5440258590944</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>109.0529576863944</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>154.8576191056868</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>131.2117699881043</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25839,13 +25839,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>22.04937489577989</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>34.70948605375847</v>
       </c>
     </row>
     <row r="44">
@@ -25918,13 +25918,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>154.815577920819</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>30.30787056447627</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>183.3889571555938</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>770429.261285719</v>
+        <v>770429.2612857188</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>770429.261285719</v>
+        <v>770429.2612857189</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>839712.5002338422</v>
+        <v>838126.6600901191</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997148.1876184228</v>
+        <v>839712.5002338425</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>997148.1876184228</v>
+        <v>839712.5002338422</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>997148.1876184229</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>997148.1876184228</v>
+        <v>997148.1876184229</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>997148.1876184229</v>
+        <v>997148.1876184228</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>997148.1876184229</v>
+        <v>930632.8461034389</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>997148.1876184228</v>
+        <v>929027.5661778327</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>997148.1876184229</v>
+        <v>929027.5661778327</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>997148.1876184228</v>
+        <v>929027.5661778327</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>303610.2405165454</v>
       </c>
       <c r="E2" t="n">
+        <v>357333.370731361</v>
+      </c>
+      <c r="F2" t="n">
+        <v>358046.9539194668</v>
+      </c>
+      <c r="G2" t="n">
         <v>358046.9539194665</v>
       </c>
-      <c r="F2" t="n">
-        <v>358046.9539194665</v>
-      </c>
-      <c r="G2" t="n">
-        <v>416935.8762313324</v>
-      </c>
       <c r="H2" t="n">
-        <v>416935.8762313324</v>
+        <v>358046.9539194666</v>
       </c>
       <c r="I2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313325</v>
       </c>
       <c r="J2" t="n">
         <v>416935.8762313323</v>
       </c>
       <c r="K2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313325</v>
       </c>
       <c r="L2" t="n">
-        <v>416935.8762313323</v>
+        <v>416935.8762313324</v>
       </c>
       <c r="M2" t="n">
-        <v>416935.8762313324</v>
+        <v>392055.7690326722</v>
       </c>
       <c r="N2" t="n">
-        <v>416935.8762313324</v>
+        <v>391455.3130217239</v>
       </c>
       <c r="O2" t="n">
-        <v>416935.8762313323</v>
+        <v>391455.3130217241</v>
       </c>
       <c r="P2" t="n">
-        <v>416935.8762313323</v>
+        <v>391455.3130217242</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,19 +26374,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>618960.3159503535</v>
+        <v>615427.533798048</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3449.010472953472</v>
       </c>
       <c r="G3" t="n">
-        <v>99523.40868091486</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>96558.96659736033</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39153.48277254672</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>87383.13961898992</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>62518.47524617217</v>
       </c>
       <c r="E4" t="n">
+        <v>4967.456039976125</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4890.851381993009</v>
+      </c>
+      <c r="G4" t="n">
         <v>4890.851381993015</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>4890.851381993015</v>
       </c>
-      <c r="G4" t="n">
-        <v>25090.7236749938</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="I4" t="n">
-        <v>25090.7236749938</v>
       </c>
       <c r="J4" t="n">
         <v>25090.7236749938</v>
       </c>
       <c r="K4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="L4" t="n">
         <v>25090.7236749938</v>
       </c>
-      <c r="L4" t="n">
-        <v>25090.72367499381</v>
-      </c>
       <c r="M4" t="n">
-        <v>25090.72367499382</v>
+        <v>16556.43626882337</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499381</v>
+        <v>16350.46994676227</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499382</v>
+        <v>16350.46994676227</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>16350.46994676228</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74015.36825377263</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
@@ -26502,16 +26502,16 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>87056.08405955584</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>86830.9759487312</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>86830.9759487312</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>86830.9759487312</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-437803.6057533998</v>
+        <v>-432342.0333821625</v>
       </c>
       <c r="C6" t="n">
-        <v>152164.2734611445</v>
+        <v>157625.8458323819</v>
       </c>
       <c r="D6" t="n">
-        <v>152164.2734611445</v>
+        <v>157625.8458323819</v>
       </c>
       <c r="E6" t="n">
-        <v>-343586.7432723344</v>
+        <v>-337428.0043054234</v>
       </c>
       <c r="F6" t="n">
-        <v>275373.5726780191</v>
+        <v>275053.1325733208</v>
       </c>
       <c r="G6" t="n">
-        <v>195266.2707194522</v>
+        <v>278502.143046274</v>
       </c>
       <c r="H6" t="n">
-        <v>294789.679400367</v>
+        <v>278502.1430462741</v>
       </c>
       <c r="I6" t="n">
-        <v>294789.679400367</v>
+        <v>198835.4722150389</v>
       </c>
       <c r="J6" t="n">
-        <v>118366.460207774</v>
+        <v>118971.219619806</v>
       </c>
       <c r="K6" t="n">
-        <v>294789.6794003669</v>
+        <v>295394.4388123993</v>
       </c>
       <c r="L6" t="n">
-        <v>294789.6794003669</v>
+        <v>295394.4388123992</v>
       </c>
       <c r="M6" t="n">
-        <v>255636.1966278203</v>
+        <v>288257.5765131211</v>
       </c>
       <c r="N6" t="n">
-        <v>294789.679400367</v>
+        <v>288085.3356207209</v>
       </c>
       <c r="O6" t="n">
-        <v>207406.5397813769</v>
+        <v>288085.335620721</v>
       </c>
       <c r="P6" t="n">
-        <v>294789.6794003669</v>
+        <v>288085.3356207212</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>827.699019368993</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1194.51293060493</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1194.51293060493</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
@@ -26822,16 +26822,16 @@
         <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
-        <v>1194.51293060493</v>
+        <v>1041.101183990492</v>
       </c>
       <c r="N4" t="n">
-        <v>1194.51293060493</v>
+        <v>1037.398747957192</v>
       </c>
       <c r="O4" t="n">
-        <v>1194.51293060493</v>
+        <v>1037.398747957192</v>
       </c>
       <c r="P4" t="n">
-        <v>1194.51293060493</v>
+        <v>1037.398747957192</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>709.0117429452</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.021293431011827</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>157.114182647737</v>
+        <v>153.4117466144374</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>363.1114752026373</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.1141826477373</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026375</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>157.114182647737</v>
+        <v>153.4117466144374</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="O4" t="n">
-        <v>363.1114752026373</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.36886595844135</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.74264849688749</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>370.8020371402619</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610844</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>689.439814736734</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251653</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>779.5476751295869</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553357</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063148</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696337</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798236</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237128</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701842</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178671</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732925</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>592.2816969034462</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312872</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295525</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>446.369404877657</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.421964331906992</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.11626629220767</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475578</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873353</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31998,40 +31998,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32150,43 +32150,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33502,7 +33502,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33739,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33979,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233475</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34456,7 +34456,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
         <v>609.6478166837925</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135756</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161038</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667467</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978926</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329959</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>506.0065528336489</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>397.0153901510452</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951842</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>58.8502384478096</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581275</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435081</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934183</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>450.1476629814279</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>476.6159189479539</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851081</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633268</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531251</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>77.9380232298109</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>526.9910873446639</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,7 +36363,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>559.987785447079</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36372,7 +36372,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36381,7 +36381,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>575.5896386552608</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>331.1491914695938</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>897.0044190605943</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>672.577872718665</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>597.5775642778375</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>931.9003894644479</v>
       </c>
       <c r="N35" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>575.5896386552618</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37329,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37548,16 +37548,16 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>917.2402387063303</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37627,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013292</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>207.9916524436043</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37788,13 +37788,13 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>600.7283960894835</v>
+        <v>486.8830894817399</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,7 +38104,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
         <v>478.3061046004592</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
